--- a/helloworld.xlsx
+++ b/helloworld.xlsx
@@ -76,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,63 +409,63 @@
   <dimension ref="A3:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
